--- a/ClosedXML_Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
+++ b/ClosedXML_Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
@@ -188,11 +188,11 @@
   </x:borders>
   <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="16">
+  <x:cellXfs count="19">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -217,6 +217,18 @@
     </x:xf>
     <x:xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,295 +662,296 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.570312" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="8.855469" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.425781" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.710938" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.285156" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.710938" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.570312" style="16" customWidth="1"/>
+    <x:col min="2" max="2" width="8.855469" style="16" customWidth="1"/>
+    <x:col min="3" max="3" width="19.425781" style="16" customWidth="1"/>
+    <x:col min="4" max="4" width="10.710938" style="16" customWidth="1"/>
+    <x:col min="5" max="5" width="10.285156" style="16" customWidth="1"/>
+    <x:col min="6" max="6" width="12.710938" style="16" customWidth="1"/>
+    <x:col min="7" max="16384" width="9.140625" style="16" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="0" t="s">
+      <x:c r="A1" s="16" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="B1" s="16" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="C1" s="16" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="D1" s="16" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="E1" s="16" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+      <x:c r="F1" s="16" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="A2" s="16" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="n">
+      <x:c r="B2" s="16" t="n">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="16" t="n">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
+      <x:c r="D2" s="16" t="n">
         <x:v>60.2</x:v>
       </x:c>
-      <x:c r="F2" s="1">
+      <x:c r="F2" s="17">
         <x:v>42481</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="A3" s="16" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="n">
+      <x:c r="B3" s="16" t="n">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="16" t="n">
         <x:v>250</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="n">
+      <x:c r="D3" s="16" t="n">
         <x:v>50.42</x:v>
       </x:c>
-      <x:c r="F3" s="1">
+      <x:c r="F3" s="17">
         <x:v>42493</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="0" t="s">
+      <x:c r="A4" s="16" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="n">
+      <x:c r="B4" s="16" t="n">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="16" t="n">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="n">
+      <x:c r="D4" s="16" t="n">
         <x:v>22.12</x:v>
       </x:c>
-      <x:c r="F4" s="1">
+      <x:c r="F4" s="17">
         <x:v>42545</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="0" t="s">
+      <x:c r="A5" s="16" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="n">
+      <x:c r="B5" s="16" t="n">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="C5" s="16" t="n">
         <x:v>250</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="n">
+      <x:c r="D5" s="16" t="n">
         <x:v>89.99</x:v>
       </x:c>
-      <x:c r="F5" s="1">
+      <x:c r="F5" s="17">
         <x:v>42848</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="0" t="s">
+      <x:c r="A6" s="16" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="n">
+      <x:c r="B6" s="16" t="n">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="C6" s="16" t="n">
         <x:v>225</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="n">
+      <x:c r="D6" s="16" t="n">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="F6" s="1">
+      <x:c r="F6" s="17">
         <x:v>42514</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="0" t="s">
+      <x:c r="A7" s="16" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="n">
+      <x:c r="B7" s="16" t="n">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="n">
+      <x:c r="C7" s="16" t="n">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="n">
+      <x:c r="D7" s="16" t="n">
         <x:v>75.33</x:v>
       </x:c>
-      <x:c r="F7" s="1">
+      <x:c r="F7" s="17">
         <x:v>42523</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="0" t="s">
+      <x:c r="A8" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="n">
+      <x:c r="B8" s="16" t="n">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="n">
+      <x:c r="C8" s="16" t="n">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="n">
+      <x:c r="D8" s="16" t="n">
         <x:v>10.24</x:v>
       </x:c>
-      <x:c r="F8" s="1">
+      <x:c r="F8" s="17">
         <x:v>42487</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="0" t="s">
+      <x:c r="A9" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="n">
+      <x:c r="B9" s="16" t="n">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="n">
+      <x:c r="C9" s="16" t="n">
         <x:v>184</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="n">
+      <x:c r="D9" s="16" t="n">
         <x:v>33.33</x:v>
       </x:c>
-      <x:c r="F9" s="1">
+      <x:c r="F9" s="17">
         <x:v>42510</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="0" t="s">
+      <x:c r="A10" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="n">
+      <x:c r="B10" s="16" t="n">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="n">
+      <x:c r="C10" s="16" t="n">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="n">
+      <x:c r="D10" s="16" t="n">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="F10" s="1">
+      <x:c r="F10" s="17">
         <x:v>42891</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <x:c r="A11" s="0" t="s">
+      <x:c r="A11" s="16" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="n">
+      <x:c r="B11" s="16" t="n">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="n">
+      <x:c r="C11" s="16" t="n">
         <x:v>394</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="n">
+      <x:c r="D11" s="16" t="n">
         <x:v>-20.24</x:v>
       </x:c>
-      <x:c r="F11" s="2" t="s"/>
+      <x:c r="F11" s="18" t="s"/>
     </x:row>
     <x:row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <x:c r="A12" s="0" t="s">
+      <x:c r="A12" s="16" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="n">
+      <x:c r="B12" s="16" t="n">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="n">
+      <x:c r="C12" s="16" t="n">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="n">
+      <x:c r="D12" s="16" t="n">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="F12" s="1">
+      <x:c r="F12" s="17">
         <x:v>42863</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <x:c r="A13" s="0" t="s">
+      <x:c r="A13" s="16" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="n">
+      <x:c r="B13" s="16" t="n">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="n">
+      <x:c r="C13" s="16" t="n">
         <x:v>221</x:v>
       </x:c>
-      <x:c r="D13" s="0" t="n">
+      <x:c r="D13" s="16" t="n">
         <x:v>24.76</x:v>
       </x:c>
-      <x:c r="F13" s="1">
+      <x:c r="F13" s="17">
         <x:v>42542</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <x:c r="A14" s="0" t="s">
+      <x:c r="A14" s="16" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="n">
+      <x:c r="B14" s="16" t="n">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="n">
+      <x:c r="C14" s="16" t="n">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="n">
+      <x:c r="D14" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F14" s="1">
+      <x:c r="F14" s="17">
         <x:v>42847</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <x:c r="A15" s="0" t="s">
+      <x:c r="A15" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="n">
+      <x:c r="B15" s="16" t="n">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="n">
+      <x:c r="C15" s="16" t="n">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="D15" s="0" t="n">
+      <x:c r="D15" s="16" t="n">
         <x:v>5.19</x:v>
       </x:c>
-      <x:c r="F15" s="1">
+      <x:c r="F15" s="17">
         <x:v>42858</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <x:c r="A16" s="0" t="s">
+      <x:c r="A16" s="16" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="n">
+      <x:c r="B16" s="16" t="n">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="n">
+      <x:c r="C16" s="16" t="n">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="D16" s="0" t="n">
+      <x:c r="D16" s="16" t="n">
         <x:v>44.2</x:v>
       </x:c>
-      <x:c r="F16" s="1">
+      <x:c r="F16" s="17">
         <x:v>42900</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <x:c r="A17" s="0" t="s">
+      <x:c r="A17" s="16" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="n">
+      <x:c r="C17" s="16" t="n">
         <x:v>255</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="n">
+      <x:c r="D17" s="16" t="n">
         <x:v>18.4</x:v>
       </x:c>
     </x:row>
@@ -964,9 +977,10 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="37.425781" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="16.285156" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="11.140625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="37.425781" style="16" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="16.285156" style="16" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="11.140625" style="16" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="16384" width="9.140625" style="16" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3" x14ac:dyDescent="0.25"/>
